--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.664124666666666</v>
+        <v>3.843275666666667</v>
       </c>
       <c r="H2">
-        <v>10.992374</v>
+        <v>11.529827</v>
       </c>
       <c r="I2">
-        <v>0.02867877120269599</v>
+        <v>0.02732998309962442</v>
       </c>
       <c r="J2">
-        <v>0.028678771202696</v>
+        <v>0.02732998309962442</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.462563</v>
+        <v>0.319869</v>
       </c>
       <c r="N2">
-        <v>1.387689</v>
+        <v>0.959607</v>
       </c>
       <c r="O2">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="P2">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="Q2">
-        <v>1.694888498187333</v>
+        <v>1.229344744221</v>
       </c>
       <c r="R2">
-        <v>15.253996483686</v>
+        <v>11.064102697989</v>
       </c>
       <c r="S2">
-        <v>0.009637109665268139</v>
+        <v>0.00464682654166736</v>
       </c>
       <c r="T2">
-        <v>0.009637109665268141</v>
+        <v>0.004646826541667361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.664124666666666</v>
+        <v>3.843275666666667</v>
       </c>
       <c r="H3">
-        <v>10.992374</v>
+        <v>11.529827</v>
       </c>
       <c r="I3">
-        <v>0.02867877120269599</v>
+        <v>0.02732998309962442</v>
       </c>
       <c r="J3">
-        <v>0.028678771202696</v>
+        <v>0.02732998309962442</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.5624053333333333</v>
+        <v>0.3653903333333333</v>
       </c>
       <c r="N3">
-        <v>1.687216</v>
+        <v>1.096171</v>
       </c>
       <c r="O3">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="P3">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="Q3">
-        <v>2.060723254531555</v>
+        <v>1.404295776935222</v>
       </c>
       <c r="R3">
-        <v>18.546509290784</v>
+        <v>12.638661992417</v>
       </c>
       <c r="S3">
-        <v>0.01171724040544751</v>
+        <v>0.005308127699158146</v>
       </c>
       <c r="T3">
-        <v>0.01171724040544751</v>
+        <v>0.005308127699158147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.664124666666666</v>
+        <v>3.843275666666667</v>
       </c>
       <c r="H4">
-        <v>10.992374</v>
+        <v>11.529827</v>
       </c>
       <c r="I4">
-        <v>0.02867877120269599</v>
+        <v>0.02732998309962442</v>
       </c>
       <c r="J4">
-        <v>0.028678771202696</v>
+        <v>0.02732998309962442</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3515583333333334</v>
+        <v>1.196027666666667</v>
       </c>
       <c r="N4">
-        <v>1.054675</v>
+        <v>3.588083</v>
       </c>
       <c r="O4">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="P4">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="Q4">
-        <v>1.288153560938889</v>
+        <v>4.596664027960111</v>
       </c>
       <c r="R4">
-        <v>11.59338204845</v>
+        <v>41.369976251641</v>
       </c>
       <c r="S4">
-        <v>0.007324421131980347</v>
+        <v>0.01737502885879891</v>
       </c>
       <c r="T4">
-        <v>0.007324421131980348</v>
+        <v>0.01737502885879891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>28.959573</v>
       </c>
       <c r="I5">
-        <v>0.07555464981402311</v>
+        <v>0.06864497105310771</v>
       </c>
       <c r="J5">
-        <v>0.07555464981402311</v>
+        <v>0.06864497105310771</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.462563</v>
+        <v>0.319869</v>
       </c>
       <c r="N5">
-        <v>1.387689</v>
+        <v>0.959607</v>
       </c>
       <c r="O5">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="P5">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="Q5">
-        <v>4.465208988533</v>
+        <v>3.087756551979</v>
       </c>
       <c r="R5">
-        <v>40.186880896797</v>
+        <v>27.789808967811</v>
       </c>
       <c r="S5">
-        <v>0.02538910892772919</v>
+        <v>0.01167147715674775</v>
       </c>
       <c r="T5">
-        <v>0.02538910892772919</v>
+        <v>0.01167147715674775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>28.959573</v>
       </c>
       <c r="I6">
-        <v>0.07555464981402311</v>
+        <v>0.06864497105310771</v>
       </c>
       <c r="J6">
-        <v>0.07555464981402311</v>
+        <v>0.06864497105310771</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5624053333333333</v>
+        <v>0.3653903333333333</v>
       </c>
       <c r="N6">
-        <v>1.687216</v>
+        <v>1.096171</v>
       </c>
       <c r="O6">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="P6">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="Q6">
-        <v>5.429006102085333</v>
+        <v>3.527182677220333</v>
       </c>
       <c r="R6">
-        <v>48.86105491876799</v>
+        <v>31.744644094983</v>
       </c>
       <c r="S6">
-        <v>0.03086924433976744</v>
+        <v>0.01333247338378038</v>
       </c>
       <c r="T6">
-        <v>0.03086924433976744</v>
+        <v>0.01333247338378038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>28.959573</v>
       </c>
       <c r="I7">
-        <v>0.07555464981402311</v>
+        <v>0.06864497105310771</v>
       </c>
       <c r="J7">
-        <v>0.07555464981402311</v>
+        <v>0.06864497105310771</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3515583333333334</v>
+        <v>1.196027666666667</v>
       </c>
       <c r="N7">
-        <v>1.054675</v>
+        <v>3.588083</v>
       </c>
       <c r="O7">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="P7">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="Q7">
-        <v>3.393659739308334</v>
+        <v>11.54548350761767</v>
       </c>
       <c r="R7">
-        <v>30.542937653775</v>
+        <v>103.909351568559</v>
       </c>
       <c r="S7">
-        <v>0.01929629654652648</v>
+        <v>0.04364102051257958</v>
       </c>
       <c r="T7">
-        <v>0.01929629654652648</v>
+        <v>0.04364102051257958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.957739666666667</v>
+        <v>0.5927003333333334</v>
       </c>
       <c r="H8">
-        <v>5.873219</v>
+        <v>1.778101</v>
       </c>
       <c r="I8">
-        <v>0.01532305068262115</v>
+        <v>0.004214761442597993</v>
       </c>
       <c r="J8">
-        <v>0.01532305068262115</v>
+        <v>0.004214761442597993</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.462563</v>
+        <v>0.319869</v>
       </c>
       <c r="N8">
-        <v>1.387689</v>
+        <v>0.959607</v>
       </c>
       <c r="O8">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="P8">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="Q8">
-        <v>0.9055779334323333</v>
+        <v>0.189586462923</v>
       </c>
       <c r="R8">
-        <v>8.150201400891</v>
+        <v>1.706278166307</v>
       </c>
       <c r="S8">
-        <v>0.005149102058494051</v>
+        <v>0.0007166219337519354</v>
       </c>
       <c r="T8">
-        <v>0.005149102058494051</v>
+        <v>0.0007166219337519354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.957739666666667</v>
+        <v>0.5927003333333334</v>
       </c>
       <c r="H9">
-        <v>5.873219</v>
+        <v>1.778101</v>
       </c>
       <c r="I9">
-        <v>0.01532305068262115</v>
+        <v>0.004214761442597993</v>
       </c>
       <c r="J9">
-        <v>0.01532305068262115</v>
+        <v>0.004214761442597993</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.5624053333333333</v>
+        <v>0.3653903333333333</v>
       </c>
       <c r="N9">
-        <v>1.687216</v>
+        <v>1.096171</v>
       </c>
       <c r="O9">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="P9">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="Q9">
-        <v>1.101043229811556</v>
+        <v>0.2165669723634445</v>
       </c>
       <c r="R9">
-        <v>9.909389068303998</v>
+        <v>1.949102751271</v>
       </c>
       <c r="S9">
-        <v>0.006260514696537983</v>
+        <v>0.0008186061395371155</v>
       </c>
       <c r="T9">
-        <v>0.006260514696537983</v>
+        <v>0.0008186061395371155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.957739666666667</v>
+        <v>0.5927003333333334</v>
       </c>
       <c r="H10">
-        <v>5.873219</v>
+        <v>1.778101</v>
       </c>
       <c r="I10">
-        <v>0.01532305068262115</v>
+        <v>0.004214761442597993</v>
       </c>
       <c r="J10">
-        <v>0.01532305068262115</v>
+        <v>0.004214761442597993</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3515583333333334</v>
+        <v>1.196027666666667</v>
       </c>
       <c r="N10">
-        <v>1.054675</v>
+        <v>3.588083</v>
       </c>
       <c r="O10">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="P10">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="Q10">
-        <v>0.6882596943138889</v>
+        <v>0.7088859967092223</v>
       </c>
       <c r="R10">
-        <v>6.194337248825</v>
+        <v>6.379973970383001</v>
       </c>
       <c r="S10">
-        <v>0.003913433927589117</v>
+        <v>0.002679533369308942</v>
       </c>
       <c r="T10">
-        <v>0.003913433927589117</v>
+        <v>0.002679533369308942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>112.4892983333333</v>
+        <v>126.5357156666666</v>
       </c>
       <c r="H11">
-        <v>337.467895</v>
+        <v>379.6071469999999</v>
       </c>
       <c r="I11">
-        <v>0.8804435283006598</v>
+        <v>0.8998102844046698</v>
       </c>
       <c r="J11">
-        <v>0.8804435283006599</v>
+        <v>0.8998102844046699</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.462563</v>
+        <v>0.319869</v>
       </c>
       <c r="N11">
-        <v>1.387689</v>
+        <v>0.959607</v>
       </c>
       <c r="O11">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="P11">
-        <v>0.3360363523651316</v>
+        <v>0.17002668917608</v>
       </c>
       <c r="Q11">
-        <v>52.03338730496167</v>
+        <v>40.47485283458099</v>
       </c>
       <c r="R11">
-        <v>468.300485744655</v>
+        <v>364.2736755112289</v>
       </c>
       <c r="S11">
-        <v>0.2958610317136402</v>
+        <v>0.1529917635439129</v>
       </c>
       <c r="T11">
-        <v>0.2958610317136403</v>
+        <v>0.1529917635439129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>112.4892983333333</v>
+        <v>126.5357156666666</v>
       </c>
       <c r="H12">
-        <v>337.467895</v>
+        <v>379.6071469999999</v>
       </c>
       <c r="I12">
-        <v>0.8804435283006598</v>
+        <v>0.8998102844046698</v>
       </c>
       <c r="J12">
-        <v>0.8804435283006599</v>
+        <v>0.8998102844046699</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5624053333333333</v>
+        <v>0.3653903333333333</v>
       </c>
       <c r="N12">
-        <v>1.687216</v>
+        <v>1.096171</v>
       </c>
       <c r="O12">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="P12">
-        <v>0.408568425844759</v>
+        <v>0.1942235997661884</v>
       </c>
       <c r="Q12">
-        <v>63.26458132559111</v>
+        <v>46.23492732601521</v>
       </c>
       <c r="R12">
-        <v>569.3812319303199</v>
+        <v>416.114345934137</v>
       </c>
       <c r="S12">
-        <v>0.3597214264030061</v>
+        <v>0.1747643925437128</v>
       </c>
       <c r="T12">
-        <v>0.3597214264030061</v>
+        <v>0.1747643925437128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>112.4892983333333</v>
+        <v>126.5357156666666</v>
       </c>
       <c r="H13">
-        <v>337.467895</v>
+        <v>379.6071469999999</v>
       </c>
       <c r="I13">
-        <v>0.8804435283006598</v>
+        <v>0.8998102844046698</v>
       </c>
       <c r="J13">
-        <v>0.8804435283006599</v>
+        <v>0.8998102844046699</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3515583333333334</v>
+        <v>1.196027666666667</v>
       </c>
       <c r="N13">
-        <v>1.054675</v>
+        <v>3.588083</v>
       </c>
       <c r="O13">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="P13">
-        <v>0.2553952217901094</v>
+        <v>0.6357497110577316</v>
       </c>
       <c r="Q13">
-        <v>39.54655023990279</v>
+        <v>151.3402167588001</v>
       </c>
       <c r="R13">
-        <v>355.918952159125</v>
+        <v>1362.061950829201</v>
       </c>
       <c r="S13">
-        <v>0.2248610701840135</v>
+        <v>0.5720541283170442</v>
       </c>
       <c r="T13">
-        <v>0.2248610701840135</v>
+        <v>0.5720541283170442</v>
       </c>
     </row>
   </sheetData>
